--- a/public/eco_refs_cost_forecast.xlsx
+++ b/public/eco_refs_cost_forecast.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OSPanel\domains\dashboard\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\o.samarkanov\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -131,6 +131,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,9 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -464,6 +469,366 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/eco_refs_cost_forecast.xlsx
+++ b/public/eco_refs_cost_forecast.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Компания</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Дата</t>
   </si>
   <si>
-    <t>Условно-переменные расходы, тенге/тонна</t>
-  </si>
-  <si>
     <t>Средняя стоимость 1 ПРС без ФОТ, тыс. тенге</t>
   </si>
   <si>
@@ -63,6 +60,12 @@
   </si>
   <si>
     <t>Амортизация, тенге/тонна</t>
+  </si>
+  <si>
+    <t>Условно-переменные расходы (сырье, материалы, топливо, ГСМ, электроэнергия), тенге/куб жидкости</t>
+  </si>
+  <si>
+    <t>Условно-переменные расходы (процессинг), тенге/тонну нефти</t>
   </si>
 </sst>
 </file>
@@ -412,18 +415,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="11.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="14" width="11.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -431,37 +436,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/public/eco_refs_cost_forecast.xlsx
+++ b/public/eco_refs_cost_forecast.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Компания</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Условно-переменные расходы (процессинг), тенге/тонну нефти</t>
+  </si>
+  <si>
+    <t>PES</t>
   </si>
 </sst>
 </file>
@@ -415,60 +418,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="11.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="15" width="11.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/public/eco_refs_cost_forecast.xlsx
+++ b/public/eco_refs_cost_forecast.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Компания</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Условно-переменные расходы (процессинг), тенге/тонну нефти</t>
+  </si>
+  <si>
+    <t>PES</t>
   </si>
 </sst>
 </file>
@@ -415,60 +418,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="11.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="15" width="11.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
